--- a/pred_ohlcv/54/2019-10-15 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-15 BTG ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,25 +413,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9485</v>
+        <v>9500</v>
       </c>
       <c r="C2" t="n">
-        <v>9485</v>
+        <v>9545</v>
       </c>
       <c r="D2" t="n">
-        <v>9485</v>
+        <v>9545</v>
       </c>
       <c r="E2" t="n">
-        <v>9485</v>
+        <v>9500</v>
       </c>
       <c r="F2" t="n">
-        <v>3.4575</v>
+        <v>64.6554</v>
       </c>
       <c r="G2" t="n">
-        <v>9491.083333333334</v>
+        <v>9489.583333333334</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -446,12 +454,15 @@
         <v>9485</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>3.4575</v>
       </c>
       <c r="G3" t="n">
-        <v>9492.5</v>
+        <v>9491.083333333334</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9480</v>
+        <v>9485</v>
       </c>
       <c r="C4" t="n">
-        <v>9480</v>
+        <v>9485</v>
       </c>
       <c r="D4" t="n">
-        <v>9480</v>
+        <v>9485</v>
       </c>
       <c r="E4" t="n">
-        <v>9480</v>
+        <v>9485</v>
       </c>
       <c r="F4" t="n">
-        <v>17.6289</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>9493.25</v>
+        <v>9492.5</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9525</v>
+        <v>9480</v>
       </c>
       <c r="C5" t="n">
-        <v>9535</v>
+        <v>9480</v>
       </c>
       <c r="D5" t="n">
-        <v>9535</v>
+        <v>9480</v>
       </c>
       <c r="E5" t="n">
-        <v>9525</v>
+        <v>9480</v>
       </c>
       <c r="F5" t="n">
-        <v>68.5</v>
+        <v>17.6289</v>
       </c>
       <c r="G5" t="n">
-        <v>9494.5</v>
+        <v>9493.25</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>9525</v>
+      </c>
+      <c r="C6" t="n">
         <v>9535</v>
       </c>
-      <c r="C6" t="n">
-        <v>9545</v>
-      </c>
       <c r="D6" t="n">
-        <v>9545</v>
+        <v>9535</v>
       </c>
       <c r="E6" t="n">
-        <v>9535</v>
+        <v>9525</v>
       </c>
       <c r="F6" t="n">
-        <v>36</v>
+        <v>68.5</v>
       </c>
       <c r="G6" t="n">
-        <v>9496.583333333334</v>
+        <v>9494.5</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9545</v>
+        <v>9535</v>
       </c>
       <c r="C7" t="n">
         <v>9545</v>
@@ -547,15 +567,18 @@
         <v>9545</v>
       </c>
       <c r="E7" t="n">
-        <v>9545</v>
+        <v>9535</v>
       </c>
       <c r="F7" t="n">
-        <v>30.5</v>
+        <v>36</v>
       </c>
       <c r="G7" t="n">
-        <v>9498.083333333334</v>
+        <v>9496.583333333334</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9485</v>
+        <v>9545</v>
       </c>
       <c r="C8" t="n">
-        <v>9450</v>
+        <v>9545</v>
       </c>
       <c r="D8" t="n">
-        <v>9485</v>
+        <v>9545</v>
       </c>
       <c r="E8" t="n">
-        <v>9450</v>
+        <v>9545</v>
       </c>
       <c r="F8" t="n">
-        <v>369</v>
+        <v>30.5</v>
       </c>
       <c r="G8" t="n">
-        <v>9497.916666666666</v>
+        <v>9498.083333333334</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9535</v>
+        <v>9485</v>
       </c>
       <c r="C9" t="n">
-        <v>9535</v>
+        <v>9450</v>
       </c>
       <c r="D9" t="n">
-        <v>9535</v>
+        <v>9485</v>
       </c>
       <c r="E9" t="n">
-        <v>9535</v>
+        <v>9450</v>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>369</v>
       </c>
       <c r="G9" t="n">
-        <v>9498.583333333334</v>
+        <v>9497.916666666666</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -619,21 +648,24 @@
         <v>9535</v>
       </c>
       <c r="C10" t="n">
-        <v>9545</v>
+        <v>9535</v>
       </c>
       <c r="D10" t="n">
-        <v>9545</v>
+        <v>9535</v>
       </c>
       <c r="E10" t="n">
-        <v>9530</v>
+        <v>9535</v>
       </c>
       <c r="F10" t="n">
-        <v>37.5</v>
+        <v>12</v>
       </c>
       <c r="G10" t="n">
-        <v>9499.416666666666</v>
+        <v>9498.583333333334</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9545</v>
+        <v>9535</v>
       </c>
       <c r="C11" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="D11" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="E11" t="n">
-        <v>9545</v>
+        <v>9530</v>
       </c>
       <c r="F11" t="n">
-        <v>71.5</v>
+        <v>37.5</v>
       </c>
       <c r="G11" t="n">
-        <v>9500.333333333334</v>
+        <v>9499.416666666666</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9540</v>
+        <v>9545</v>
       </c>
       <c r="C12" t="n">
         <v>9550</v>
@@ -677,15 +712,18 @@
         <v>9550</v>
       </c>
       <c r="E12" t="n">
-        <v>9540</v>
+        <v>9545</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>71.5</v>
       </c>
       <c r="G12" t="n">
-        <v>9501.25</v>
+        <v>9500.333333333334</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -697,21 +735,24 @@
         <v>9540</v>
       </c>
       <c r="C13" t="n">
-        <v>9520</v>
+        <v>9550</v>
       </c>
       <c r="D13" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E13" t="n">
         <v>9540</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9520</v>
       </c>
       <c r="F13" t="n">
         <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>9501.666666666666</v>
+        <v>9501.25</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,13 +761,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9550</v>
+        <v>9540</v>
       </c>
       <c r="C14" t="n">
         <v>9520</v>
       </c>
       <c r="D14" t="n">
-        <v>9550</v>
+        <v>9540</v>
       </c>
       <c r="E14" t="n">
         <v>9520</v>
@@ -735,9 +776,12 @@
         <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>9502.083333333334</v>
+        <v>9501.666666666666</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="C15" t="n">
-        <v>9540</v>
+        <v>9520</v>
       </c>
       <c r="D15" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="E15" t="n">
-        <v>9540</v>
+        <v>9520</v>
       </c>
       <c r="F15" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>9503.916666666666</v>
+        <v>9502.083333333334</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,21 +822,24 @@
         <v>9540</v>
       </c>
       <c r="C16" t="n">
-        <v>9550</v>
+        <v>9540</v>
       </c>
       <c r="D16" t="n">
-        <v>9550</v>
+        <v>9540</v>
       </c>
       <c r="E16" t="n">
         <v>9540</v>
       </c>
       <c r="F16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G16" t="n">
-        <v>9506</v>
+        <v>9503.916666666666</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,7 +848,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9550</v>
+        <v>9540</v>
       </c>
       <c r="C17" t="n">
         <v>9550</v>
@@ -807,15 +857,18 @@
         <v>9550</v>
       </c>
       <c r="E17" t="n">
-        <v>9550</v>
+        <v>9540</v>
       </c>
       <c r="F17" t="n">
-        <v>8.880000000000001</v>
+        <v>26</v>
       </c>
       <c r="G17" t="n">
-        <v>9507.5</v>
+        <v>9506</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +889,15 @@
         <v>9550</v>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>9508.833333333334</v>
+        <v>9507.5</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -862,12 +918,15 @@
         <v>9550</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G19" t="n">
-        <v>9510.083333333334</v>
+        <v>9508.833333333334</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,7 +935,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9500</v>
+        <v>9550</v>
       </c>
       <c r="C20" t="n">
         <v>9550</v>
@@ -885,15 +944,18 @@
         <v>9550</v>
       </c>
       <c r="E20" t="n">
-        <v>9500</v>
+        <v>9550</v>
       </c>
       <c r="F20" t="n">
-        <v>22.7494</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>9511.333333333334</v>
+        <v>9510.083333333334</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,7 +964,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="C21" t="n">
         <v>9550</v>
@@ -911,15 +973,18 @@
         <v>9550</v>
       </c>
       <c r="E21" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="F21" t="n">
-        <v>32</v>
+        <v>22.7494</v>
       </c>
       <c r="G21" t="n">
-        <v>9512.25</v>
+        <v>9511.333333333334</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -931,21 +996,24 @@
         <v>9550</v>
       </c>
       <c r="C22" t="n">
-        <v>9535</v>
+        <v>9550</v>
       </c>
       <c r="D22" t="n">
-        <v>9580</v>
+        <v>9550</v>
       </c>
       <c r="E22" t="n">
-        <v>9535</v>
+        <v>9550</v>
       </c>
       <c r="F22" t="n">
-        <v>199.4047</v>
+        <v>32</v>
       </c>
       <c r="G22" t="n">
-        <v>9512.916666666666</v>
+        <v>9512.25</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9510</v>
+        <v>9550</v>
       </c>
       <c r="C23" t="n">
-        <v>9510</v>
+        <v>9535</v>
       </c>
       <c r="D23" t="n">
-        <v>9510</v>
+        <v>9580</v>
       </c>
       <c r="E23" t="n">
-        <v>9510</v>
+        <v>9535</v>
       </c>
       <c r="F23" t="n">
-        <v>50.2011</v>
+        <v>199.4047</v>
       </c>
       <c r="G23" t="n">
-        <v>9513.166666666666</v>
+        <v>9512.916666666666</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9535</v>
+        <v>9510</v>
       </c>
       <c r="C24" t="n">
-        <v>9560</v>
+        <v>9510</v>
       </c>
       <c r="D24" t="n">
-        <v>9560</v>
+        <v>9510</v>
       </c>
       <c r="E24" t="n">
-        <v>9535</v>
+        <v>9510</v>
       </c>
       <c r="F24" t="n">
-        <v>31.5</v>
+        <v>50.2011</v>
       </c>
       <c r="G24" t="n">
-        <v>9514.666666666666</v>
+        <v>9513.166666666666</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9510</v>
+        <v>9535</v>
       </c>
       <c r="C25" t="n">
-        <v>9510</v>
+        <v>9560</v>
       </c>
       <c r="D25" t="n">
-        <v>9510</v>
+        <v>9560</v>
       </c>
       <c r="E25" t="n">
-        <v>9510</v>
+        <v>9535</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>31.5</v>
       </c>
       <c r="G25" t="n">
-        <v>9515.333333333334</v>
+        <v>9514.666666666666</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1035,21 +1112,24 @@
         <v>9510</v>
       </c>
       <c r="C26" t="n">
-        <v>9500</v>
+        <v>9510</v>
       </c>
       <c r="D26" t="n">
         <v>9510</v>
       </c>
       <c r="E26" t="n">
-        <v>9500</v>
+        <v>9510</v>
       </c>
       <c r="F26" t="n">
-        <v>245.9735</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>9515.833333333334</v>
+        <v>9515.333333333334</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9545</v>
+        <v>9510</v>
       </c>
       <c r="C27" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="D27" t="n">
-        <v>9550</v>
+        <v>9510</v>
       </c>
       <c r="E27" t="n">
-        <v>9545</v>
+        <v>9500</v>
       </c>
       <c r="F27" t="n">
-        <v>6.29</v>
+        <v>245.9735</v>
       </c>
       <c r="G27" t="n">
-        <v>9516.916666666666</v>
+        <v>9515.833333333334</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,7 +1167,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="C28" t="n">
         <v>9550</v>
@@ -1093,15 +1176,18 @@
         <v>9550</v>
       </c>
       <c r="E28" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="F28" t="n">
-        <v>9.6342</v>
+        <v>6.29</v>
       </c>
       <c r="G28" t="n">
-        <v>9518.666666666666</v>
+        <v>9516.916666666666</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9505</v>
+        <v>9550</v>
       </c>
       <c r="C29" t="n">
-        <v>9505</v>
+        <v>9550</v>
       </c>
       <c r="D29" t="n">
-        <v>9505</v>
+        <v>9550</v>
       </c>
       <c r="E29" t="n">
-        <v>9505</v>
+        <v>9550</v>
       </c>
       <c r="F29" t="n">
-        <v>23.4681</v>
+        <v>9.6342</v>
       </c>
       <c r="G29" t="n">
-        <v>9518.916666666666</v>
+        <v>9518.666666666666</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,21 +1228,24 @@
         <v>9505</v>
       </c>
       <c r="C30" t="n">
-        <v>9550</v>
+        <v>9505</v>
       </c>
       <c r="D30" t="n">
-        <v>9550</v>
+        <v>9505</v>
       </c>
       <c r="E30" t="n">
         <v>9505</v>
       </c>
       <c r="F30" t="n">
-        <v>75.1276</v>
+        <v>23.4681</v>
       </c>
       <c r="G30" t="n">
-        <v>9519.833333333334</v>
+        <v>9518.916666666666</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1165,21 +1257,24 @@
         <v>9505</v>
       </c>
       <c r="C31" t="n">
-        <v>9500</v>
+        <v>9550</v>
       </c>
       <c r="D31" t="n">
+        <v>9550</v>
+      </c>
+      <c r="E31" t="n">
         <v>9505</v>
       </c>
-      <c r="E31" t="n">
-        <v>9500</v>
-      </c>
       <c r="F31" t="n">
-        <v>31.0912</v>
+        <v>75.1276</v>
       </c>
       <c r="G31" t="n">
-        <v>9519.916666666666</v>
+        <v>9519.833333333334</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9500</v>
+        <v>9505</v>
       </c>
       <c r="C32" t="n">
         <v>9500</v>
       </c>
       <c r="D32" t="n">
-        <v>9500</v>
+        <v>9505</v>
       </c>
       <c r="E32" t="n">
         <v>9500</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9088000000000001</v>
+        <v>31.0912</v>
       </c>
       <c r="G32" t="n">
-        <v>9519.583333333334</v>
+        <v>9519.916666666666</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9495</v>
+        <v>9500</v>
       </c>
       <c r="C33" t="n">
-        <v>9550</v>
+        <v>9500</v>
       </c>
       <c r="D33" t="n">
-        <v>9565</v>
+        <v>9500</v>
       </c>
       <c r="E33" t="n">
-        <v>9480</v>
+        <v>9500</v>
       </c>
       <c r="F33" t="n">
-        <v>992.0471</v>
+        <v>0.9088000000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>9521.166666666666</v>
+        <v>9519.583333333334</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9540</v>
+        <v>9495</v>
       </c>
       <c r="C34" t="n">
-        <v>9535</v>
+        <v>9550</v>
       </c>
       <c r="D34" t="n">
-        <v>9540</v>
+        <v>9565</v>
       </c>
       <c r="E34" t="n">
-        <v>9535</v>
+        <v>9480</v>
       </c>
       <c r="F34" t="n">
-        <v>32.2283</v>
+        <v>992.0471</v>
       </c>
       <c r="G34" t="n">
-        <v>9521.416666666666</v>
+        <v>9521.166666666666</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9480</v>
+        <v>9540</v>
       </c>
       <c r="C35" t="n">
-        <v>9560</v>
+        <v>9535</v>
       </c>
       <c r="D35" t="n">
-        <v>9560</v>
+        <v>9540</v>
       </c>
       <c r="E35" t="n">
-        <v>9480</v>
+        <v>9535</v>
       </c>
       <c r="F35" t="n">
-        <v>871.4606</v>
+        <v>32.2283</v>
       </c>
       <c r="G35" t="n">
-        <v>9522.25</v>
+        <v>9521.416666666666</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9475</v>
+        <v>9480</v>
       </c>
       <c r="C36" t="n">
-        <v>9425</v>
+        <v>9560</v>
       </c>
       <c r="D36" t="n">
-        <v>9475</v>
+        <v>9560</v>
       </c>
       <c r="E36" t="n">
-        <v>9425</v>
+        <v>9480</v>
       </c>
       <c r="F36" t="n">
-        <v>114.6687</v>
+        <v>871.4606</v>
       </c>
       <c r="G36" t="n">
-        <v>9520.833333333334</v>
+        <v>9522.25</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9460</v>
+        <v>9475</v>
       </c>
       <c r="C37" t="n">
-        <v>9460</v>
+        <v>9425</v>
       </c>
       <c r="D37" t="n">
-        <v>9460</v>
+        <v>9475</v>
       </c>
       <c r="E37" t="n">
-        <v>9460</v>
+        <v>9425</v>
       </c>
       <c r="F37" t="n">
-        <v>20</v>
+        <v>114.6687</v>
       </c>
       <c r="G37" t="n">
-        <v>9520.583333333334</v>
+        <v>9520.833333333334</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9530</v>
+        <v>9460</v>
       </c>
       <c r="C38" t="n">
-        <v>9535</v>
+        <v>9460</v>
       </c>
       <c r="D38" t="n">
-        <v>9535</v>
+        <v>9460</v>
       </c>
       <c r="E38" t="n">
-        <v>9530</v>
+        <v>9460</v>
       </c>
       <c r="F38" t="n">
-        <v>11.1779</v>
+        <v>20</v>
       </c>
       <c r="G38" t="n">
-        <v>9520.833333333334</v>
+        <v>9520.583333333334</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>9530</v>
+      </c>
+      <c r="C39" t="n">
         <v>9535</v>
-      </c>
-      <c r="C39" t="n">
-        <v>9520</v>
       </c>
       <c r="D39" t="n">
         <v>9535</v>
       </c>
       <c r="E39" t="n">
-        <v>9520</v>
+        <v>9530</v>
       </c>
       <c r="F39" t="n">
-        <v>13.0967</v>
+        <v>11.1779</v>
       </c>
       <c r="G39" t="n">
-        <v>9520.916666666666</v>
+        <v>9520.833333333334</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9530</v>
+        <v>9535</v>
       </c>
       <c r="C40" t="n">
-        <v>9535</v>
+        <v>9520</v>
       </c>
       <c r="D40" t="n">
         <v>9535</v>
       </c>
       <c r="E40" t="n">
-        <v>9530</v>
+        <v>9520</v>
       </c>
       <c r="F40" t="n">
-        <v>38</v>
+        <v>13.0967</v>
       </c>
       <c r="G40" t="n">
-        <v>9521.5</v>
+        <v>9520.916666666666</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9425</v>
+        <v>9530</v>
       </c>
       <c r="C41" t="n">
-        <v>9415</v>
+        <v>9535</v>
       </c>
       <c r="D41" t="n">
-        <v>9425</v>
+        <v>9535</v>
       </c>
       <c r="E41" t="n">
-        <v>9415</v>
+        <v>9530</v>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G41" t="n">
-        <v>9520.083333333334</v>
+        <v>9521.5</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9510</v>
+        <v>9425</v>
       </c>
       <c r="C42" t="n">
-        <v>9530</v>
+        <v>9415</v>
       </c>
       <c r="D42" t="n">
-        <v>9530</v>
+        <v>9425</v>
       </c>
       <c r="E42" t="n">
-        <v>9510</v>
+        <v>9415</v>
       </c>
       <c r="F42" t="n">
-        <v>12.86</v>
+        <v>50</v>
       </c>
       <c r="G42" t="n">
-        <v>9520.666666666666</v>
+        <v>9520.083333333334</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9525</v>
+        <v>9510</v>
       </c>
       <c r="C43" t="n">
-        <v>9550</v>
+        <v>9530</v>
       </c>
       <c r="D43" t="n">
-        <v>9550</v>
+        <v>9530</v>
       </c>
       <c r="E43" t="n">
-        <v>9430</v>
+        <v>9510</v>
       </c>
       <c r="F43" t="n">
-        <v>536.3916</v>
+        <v>12.86</v>
       </c>
       <c r="G43" t="n">
-        <v>9521.166666666666</v>
+        <v>9520.666666666666</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9490</v>
+        <v>9525</v>
       </c>
       <c r="C44" t="n">
-        <v>9490</v>
+        <v>9550</v>
       </c>
       <c r="D44" t="n">
-        <v>9490</v>
+        <v>9550</v>
       </c>
       <c r="E44" t="n">
-        <v>9490</v>
+        <v>9430</v>
       </c>
       <c r="F44" t="n">
-        <v>6</v>
+        <v>536.3916</v>
       </c>
       <c r="G44" t="n">
-        <v>9520.833333333334</v>
+        <v>9521.166666666666</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1529,21 +1663,24 @@
         <v>9490</v>
       </c>
       <c r="C45" t="n">
-        <v>9540</v>
+        <v>9490</v>
       </c>
       <c r="D45" t="n">
-        <v>9540</v>
+        <v>9490</v>
       </c>
       <c r="E45" t="n">
         <v>9490</v>
       </c>
       <c r="F45" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="G45" t="n">
-        <v>9521.333333333334</v>
+        <v>9520.833333333334</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9450</v>
+        <v>9490</v>
       </c>
       <c r="C46" t="n">
-        <v>9500</v>
+        <v>9540</v>
       </c>
       <c r="D46" t="n">
-        <v>9500</v>
+        <v>9540</v>
       </c>
       <c r="E46" t="n">
-        <v>9450</v>
+        <v>9490</v>
       </c>
       <c r="F46" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G46" t="n">
-        <v>9521.166666666666</v>
+        <v>9521.333333333334</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1581,21 +1721,24 @@
         <v>9450</v>
       </c>
       <c r="C47" t="n">
-        <v>9540</v>
+        <v>9500</v>
       </c>
       <c r="D47" t="n">
-        <v>9540</v>
+        <v>9500</v>
       </c>
       <c r="E47" t="n">
         <v>9450</v>
       </c>
       <c r="F47" t="n">
-        <v>72.59439999999999</v>
+        <v>56</v>
       </c>
       <c r="G47" t="n">
-        <v>9521.666666666666</v>
+        <v>9521.166666666666</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9445</v>
+        <v>9450</v>
       </c>
       <c r="C48" t="n">
-        <v>9530</v>
+        <v>9540</v>
       </c>
       <c r="D48" t="n">
-        <v>9530</v>
+        <v>9540</v>
       </c>
       <c r="E48" t="n">
-        <v>9445</v>
+        <v>9450</v>
       </c>
       <c r="F48" t="n">
-        <v>55.6342</v>
+        <v>72.59439999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>9521.833333333334</v>
+        <v>9521.666666666666</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>9445</v>
+      </c>
+      <c r="C49" t="n">
         <v>9530</v>
       </c>
-      <c r="C49" t="n">
-        <v>9535</v>
-      </c>
       <c r="D49" t="n">
-        <v>9535</v>
+        <v>9530</v>
       </c>
       <c r="E49" t="n">
-        <v>9530</v>
+        <v>9445</v>
       </c>
       <c r="F49" t="n">
-        <v>94.41459999999999</v>
+        <v>55.6342</v>
       </c>
       <c r="G49" t="n">
-        <v>9522</v>
+        <v>9521.833333333334</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9470</v>
+        <v>9530</v>
       </c>
       <c r="C50" t="n">
-        <v>9470</v>
+        <v>9535</v>
       </c>
       <c r="D50" t="n">
-        <v>9470</v>
+        <v>9535</v>
       </c>
       <c r="E50" t="n">
-        <v>9470</v>
+        <v>9530</v>
       </c>
       <c r="F50" t="n">
-        <v>6</v>
+        <v>94.41459999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>9521.75</v>
+        <v>9522</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9435</v>
+        <v>9470</v>
       </c>
       <c r="C51" t="n">
-        <v>9435</v>
+        <v>9470</v>
       </c>
       <c r="D51" t="n">
-        <v>9435</v>
+        <v>9470</v>
       </c>
       <c r="E51" t="n">
-        <v>9435</v>
+        <v>9470</v>
       </c>
       <c r="F51" t="n">
-        <v>682</v>
+        <v>6</v>
       </c>
       <c r="G51" t="n">
-        <v>9520.25</v>
+        <v>9521.75</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9490</v>
+        <v>9435</v>
       </c>
       <c r="C52" t="n">
-        <v>9540</v>
+        <v>9435</v>
       </c>
       <c r="D52" t="n">
-        <v>9540</v>
+        <v>9435</v>
       </c>
       <c r="E52" t="n">
-        <v>9490</v>
+        <v>9435</v>
       </c>
       <c r="F52" t="n">
-        <v>187</v>
+        <v>682</v>
       </c>
       <c r="G52" t="n">
-        <v>9520.5</v>
+        <v>9520.25</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>9490</v>
+      </c>
+      <c r="C53" t="n">
         <v>9540</v>
-      </c>
-      <c r="C53" t="n">
-        <v>9435</v>
       </c>
       <c r="D53" t="n">
         <v>9540</v>
       </c>
       <c r="E53" t="n">
-        <v>9435</v>
+        <v>9490</v>
       </c>
       <c r="F53" t="n">
-        <v>15.8651</v>
+        <v>187</v>
       </c>
       <c r="G53" t="n">
-        <v>9518.916666666666</v>
+        <v>9520.5</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9425</v>
+        <v>9540</v>
       </c>
       <c r="C54" t="n">
-        <v>9425</v>
+        <v>9435</v>
       </c>
       <c r="D54" t="n">
-        <v>9425</v>
+        <v>9540</v>
       </c>
       <c r="E54" t="n">
-        <v>9425</v>
+        <v>9435</v>
       </c>
       <c r="F54" t="n">
-        <v>22.3678</v>
+        <v>15.8651</v>
       </c>
       <c r="G54" t="n">
-        <v>9517.166666666666</v>
+        <v>9518.916666666666</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9420</v>
+        <v>9425</v>
       </c>
       <c r="C55" t="n">
-        <v>9420</v>
+        <v>9425</v>
       </c>
       <c r="D55" t="n">
-        <v>9420</v>
+        <v>9425</v>
       </c>
       <c r="E55" t="n">
-        <v>9420</v>
+        <v>9425</v>
       </c>
       <c r="F55" t="n">
-        <v>4.8893</v>
+        <v>22.3678</v>
       </c>
       <c r="G55" t="n">
-        <v>9515.083333333334</v>
+        <v>9517.166666666666</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,12 +1991,15 @@
         <v>9420</v>
       </c>
       <c r="F56" t="n">
-        <v>220.1467</v>
+        <v>4.8893</v>
       </c>
       <c r="G56" t="n">
-        <v>9513.833333333334</v>
+        <v>9515.083333333334</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9480</v>
+        <v>9420</v>
       </c>
       <c r="C57" t="n">
-        <v>9480</v>
+        <v>9420</v>
       </c>
       <c r="D57" t="n">
-        <v>9480</v>
+        <v>9420</v>
       </c>
       <c r="E57" t="n">
-        <v>9480</v>
+        <v>9420</v>
       </c>
       <c r="F57" t="n">
-        <v>4.8893</v>
+        <v>220.1467</v>
       </c>
       <c r="G57" t="n">
-        <v>9512.666666666666</v>
+        <v>9513.833333333334</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9415</v>
+        <v>9480</v>
       </c>
       <c r="C58" t="n">
-        <v>9415</v>
+        <v>9480</v>
       </c>
       <c r="D58" t="n">
-        <v>9415</v>
+        <v>9480</v>
       </c>
       <c r="E58" t="n">
-        <v>9415</v>
+        <v>9480</v>
       </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>4.8893</v>
       </c>
       <c r="G58" t="n">
-        <v>9511.333333333334</v>
+        <v>9512.666666666666</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9430</v>
+        <v>9415</v>
       </c>
       <c r="C59" t="n">
-        <v>9430</v>
+        <v>9415</v>
       </c>
       <c r="D59" t="n">
-        <v>9430</v>
+        <v>9415</v>
       </c>
       <c r="E59" t="n">
-        <v>9430</v>
+        <v>9415</v>
       </c>
       <c r="F59" t="n">
-        <v>4.2019</v>
+        <v>5</v>
       </c>
       <c r="G59" t="n">
-        <v>9510.25</v>
+        <v>9511.333333333334</v>
       </c>
       <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9425</v>
+        <v>9430</v>
       </c>
       <c r="C60" t="n">
-        <v>9425</v>
+        <v>9430</v>
       </c>
       <c r="D60" t="n">
-        <v>9425</v>
+        <v>9430</v>
       </c>
       <c r="E60" t="n">
-        <v>9425</v>
+        <v>9430</v>
       </c>
       <c r="F60" t="n">
-        <v>16.7987</v>
+        <v>4.2019</v>
       </c>
       <c r="G60" t="n">
-        <v>9509.083333333334</v>
+        <v>9510.25</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9455</v>
+        <v>9425</v>
       </c>
       <c r="C61" t="n">
-        <v>9415</v>
+        <v>9425</v>
       </c>
       <c r="D61" t="n">
-        <v>9455</v>
+        <v>9425</v>
       </c>
       <c r="E61" t="n">
-        <v>9415</v>
+        <v>9425</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3231</v>
+        <v>16.7987</v>
       </c>
       <c r="G61" t="n">
-        <v>9506.916666666666</v>
+        <v>9509.083333333334</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9410</v>
+        <v>9455</v>
       </c>
       <c r="C62" t="n">
-        <v>9465</v>
+        <v>9415</v>
       </c>
       <c r="D62" t="n">
-        <v>9465</v>
+        <v>9455</v>
       </c>
       <c r="E62" t="n">
-        <v>9400</v>
+        <v>9415</v>
       </c>
       <c r="F62" t="n">
-        <v>214.4752</v>
+        <v>0.3231</v>
       </c>
       <c r="G62" t="n">
-        <v>9506.583333333334</v>
+        <v>9506.916666666666</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9400</v>
+        <v>9410</v>
       </c>
       <c r="C63" t="n">
-        <v>9400</v>
+        <v>9465</v>
       </c>
       <c r="D63" t="n">
-        <v>9400</v>
+        <v>9465</v>
       </c>
       <c r="E63" t="n">
         <v>9400</v>
       </c>
       <c r="F63" t="n">
-        <v>27.8</v>
+        <v>214.4752</v>
       </c>
       <c r="G63" t="n">
-        <v>9505.166666666666</v>
+        <v>9506.583333333334</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2023,21 +2214,24 @@
         <v>9400</v>
       </c>
       <c r="C64" t="n">
-        <v>9480</v>
+        <v>9400</v>
       </c>
       <c r="D64" t="n">
-        <v>9480</v>
+        <v>9400</v>
       </c>
       <c r="E64" t="n">
         <v>9400</v>
       </c>
       <c r="F64" t="n">
-        <v>611.9446</v>
+        <v>27.8</v>
       </c>
       <c r="G64" t="n">
         <v>9505.166666666666</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>9400</v>
+      </c>
+      <c r="C65" t="n">
         <v>9480</v>
       </c>
-      <c r="C65" t="n">
-        <v>9500</v>
-      </c>
       <c r="D65" t="n">
-        <v>9500</v>
+        <v>9480</v>
       </c>
       <c r="E65" t="n">
-        <v>9480</v>
+        <v>9400</v>
       </c>
       <c r="F65" t="n">
-        <v>1.3258</v>
+        <v>611.9446</v>
       </c>
       <c r="G65" t="n">
-        <v>9504.583333333334</v>
+        <v>9505.166666666666</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9510</v>
+        <v>9480</v>
       </c>
       <c r="C66" t="n">
-        <v>9510</v>
+        <v>9500</v>
       </c>
       <c r="D66" t="n">
-        <v>9510</v>
+        <v>9500</v>
       </c>
       <c r="E66" t="n">
-        <v>9510</v>
+        <v>9480</v>
       </c>
       <c r="F66" t="n">
-        <v>6.49</v>
+        <v>1.3258</v>
       </c>
       <c r="G66" t="n">
-        <v>9504</v>
+        <v>9504.583333333334</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>9510</v>
       </c>
       <c r="F67" t="n">
-        <v>6.22</v>
+        <v>6.49</v>
       </c>
       <c r="G67" t="n">
-        <v>9503.416666666666</v>
+        <v>9504</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9525</v>
+        <v>9510</v>
       </c>
       <c r="C68" t="n">
-        <v>9525</v>
+        <v>9510</v>
       </c>
       <c r="D68" t="n">
-        <v>9525</v>
+        <v>9510</v>
       </c>
       <c r="E68" t="n">
-        <v>9525</v>
+        <v>9510</v>
       </c>
       <c r="F68" t="n">
-        <v>6.39</v>
+        <v>6.22</v>
       </c>
       <c r="G68" t="n">
-        <v>9504.666666666666</v>
+        <v>9503.416666666666</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>9525</v>
       </c>
       <c r="F69" t="n">
-        <v>6.2</v>
+        <v>6.39</v>
       </c>
       <c r="G69" t="n">
-        <v>9504.5</v>
+        <v>9504.666666666666</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9500</v>
+        <v>9525</v>
       </c>
       <c r="C70" t="n">
-        <v>9500</v>
+        <v>9525</v>
       </c>
       <c r="D70" t="n">
-        <v>9500</v>
+        <v>9525</v>
       </c>
       <c r="E70" t="n">
-        <v>9500</v>
+        <v>9525</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>6.2</v>
       </c>
       <c r="G70" t="n">
-        <v>9503.75</v>
+        <v>9504.5</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,7 +2414,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9490</v>
+        <v>9500</v>
       </c>
       <c r="C71" t="n">
         <v>9500</v>
@@ -2211,15 +2423,18 @@
         <v>9500</v>
       </c>
       <c r="E71" t="n">
-        <v>9490</v>
+        <v>9500</v>
       </c>
       <c r="F71" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>9502.916666666666</v>
+        <v>9503.75</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2231,21 +2446,24 @@
         <v>9490</v>
       </c>
       <c r="C72" t="n">
-        <v>9490</v>
+        <v>9500</v>
       </c>
       <c r="D72" t="n">
-        <v>9490</v>
+        <v>9500</v>
       </c>
       <c r="E72" t="n">
         <v>9490</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G72" t="n">
-        <v>9501.916666666666</v>
+        <v>9502.916666666666</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>9490</v>
       </c>
       <c r="F73" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>9501.416666666666</v>
+        <v>9501.916666666666</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2283,21 +2504,24 @@
         <v>9490</v>
       </c>
       <c r="C74" t="n">
-        <v>9500</v>
+        <v>9490</v>
       </c>
       <c r="D74" t="n">
-        <v>9500</v>
+        <v>9490</v>
       </c>
       <c r="E74" t="n">
         <v>9490</v>
       </c>
       <c r="F74" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G74" t="n">
-        <v>9501.083333333334</v>
+        <v>9501.416666666666</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,7 +2530,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9500</v>
+        <v>9490</v>
       </c>
       <c r="C75" t="n">
         <v>9500</v>
@@ -2315,15 +2539,18 @@
         <v>9500</v>
       </c>
       <c r="E75" t="n">
-        <v>9500</v>
+        <v>9490</v>
       </c>
       <c r="F75" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G75" t="n">
-        <v>9500.416666666666</v>
+        <v>9501.083333333334</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>9500</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G76" t="n">
-        <v>9499.583333333334</v>
+        <v>9500.416666666666</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2361,21 +2591,24 @@
         <v>9500</v>
       </c>
       <c r="C77" t="n">
-        <v>9520</v>
+        <v>9500</v>
       </c>
       <c r="D77" t="n">
-        <v>9520</v>
+        <v>9500</v>
       </c>
       <c r="E77" t="n">
         <v>9500</v>
       </c>
       <c r="F77" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
-        <v>9499.083333333334</v>
+        <v>9499.583333333334</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,7 +2617,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9520</v>
+        <v>9500</v>
       </c>
       <c r="C78" t="n">
         <v>9520</v>
@@ -2393,15 +2626,18 @@
         <v>9520</v>
       </c>
       <c r="E78" t="n">
-        <v>9520</v>
+        <v>9500</v>
       </c>
       <c r="F78" t="n">
-        <v>6.52</v>
+        <v>40</v>
       </c>
       <c r="G78" t="n">
-        <v>9498.583333333334</v>
+        <v>9499.083333333334</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2413,21 +2649,24 @@
         <v>9520</v>
       </c>
       <c r="C79" t="n">
-        <v>9545</v>
+        <v>9520</v>
       </c>
       <c r="D79" t="n">
-        <v>9545</v>
+        <v>9520</v>
       </c>
       <c r="E79" t="n">
         <v>9520</v>
       </c>
       <c r="F79" t="n">
-        <v>186</v>
+        <v>6.52</v>
       </c>
       <c r="G79" t="n">
-        <v>9498.5</v>
+        <v>9498.583333333334</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,7 +2675,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9545</v>
+        <v>9520</v>
       </c>
       <c r="C80" t="n">
         <v>9545</v>
@@ -2445,15 +2684,18 @@
         <v>9545</v>
       </c>
       <c r="E80" t="n">
-        <v>9545</v>
+        <v>9520</v>
       </c>
       <c r="F80" t="n">
-        <v>6.41</v>
+        <v>186</v>
       </c>
       <c r="G80" t="n">
-        <v>9498.416666666666</v>
+        <v>9498.5</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2474,12 +2716,15 @@
         <v>9545</v>
       </c>
       <c r="F81" t="n">
-        <v>6.34</v>
+        <v>6.41</v>
       </c>
       <c r="G81" t="n">
-        <v>9498.333333333334</v>
+        <v>9498.416666666666</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2500,12 +2745,15 @@
         <v>9545</v>
       </c>
       <c r="F82" t="n">
-        <v>13.97</v>
+        <v>6.34</v>
       </c>
       <c r="G82" t="n">
-        <v>9498.5</v>
+        <v>9498.333333333334</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9540</v>
+        <v>9545</v>
       </c>
       <c r="C83" t="n">
-        <v>9540</v>
+        <v>9545</v>
       </c>
       <c r="D83" t="n">
-        <v>9540</v>
+        <v>9545</v>
       </c>
       <c r="E83" t="n">
-        <v>9540</v>
+        <v>9545</v>
       </c>
       <c r="F83" t="n">
-        <v>13.24</v>
+        <v>13.97</v>
       </c>
       <c r="G83" t="n">
-        <v>9499</v>
+        <v>9498.5</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>9540</v>
       </c>
       <c r="F84" t="n">
-        <v>6.27</v>
+        <v>13.24</v>
       </c>
       <c r="G84" t="n">
-        <v>9498.666666666666</v>
+        <v>9499</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>9540</v>
       </c>
       <c r="F85" t="n">
-        <v>6.64</v>
+        <v>6.27</v>
       </c>
       <c r="G85" t="n">
-        <v>9499.166666666666</v>
+        <v>9498.666666666666</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="C86" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="D86" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="E86" t="n">
-        <v>9545</v>
+        <v>9540</v>
       </c>
       <c r="F86" t="n">
-        <v>3.31</v>
+        <v>6.64</v>
       </c>
       <c r="G86" t="n">
-        <v>9499.916666666666</v>
+        <v>9499.166666666666</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>9545</v>
       </c>
       <c r="F87" t="n">
-        <v>70.02679999999999</v>
+        <v>3.31</v>
       </c>
       <c r="G87" t="n">
-        <v>9499.833333333334</v>
+        <v>9499.916666666666</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2647,21 +2910,24 @@
         <v>9545</v>
       </c>
       <c r="C88" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="D88" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="E88" t="n">
         <v>9545</v>
       </c>
       <c r="F88" t="n">
-        <v>62</v>
+        <v>70.02679999999999</v>
       </c>
       <c r="G88" t="n">
         <v>9499.833333333334</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,7 +2936,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="C89" t="n">
         <v>9550</v>
@@ -2679,15 +2945,18 @@
         <v>9550</v>
       </c>
       <c r="E89" t="n">
-        <v>9550</v>
+        <v>9545</v>
       </c>
       <c r="F89" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="G89" t="n">
-        <v>9500.583333333334</v>
+        <v>9499.833333333334</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>9550</v>
       </c>
       <c r="F90" t="n">
-        <v>103.5</v>
+        <v>30</v>
       </c>
       <c r="G90" t="n">
         <v>9500.583333333334</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>9550</v>
       </c>
       <c r="F91" t="n">
-        <v>34.5</v>
+        <v>103.5</v>
       </c>
       <c r="G91" t="n">
-        <v>9501.416666666666</v>
+        <v>9500.583333333334</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>9550</v>
       </c>
       <c r="F92" t="n">
-        <v>6</v>
+        <v>34.5</v>
       </c>
       <c r="G92" t="n">
-        <v>9502.25</v>
+        <v>9501.416666666666</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>9550</v>
       </c>
       <c r="F93" t="n">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="G93" t="n">
         <v>9502.25</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>9550</v>
       </c>
       <c r="F94" t="n">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="G94" t="n">
-        <v>9502.5</v>
+        <v>9502.25</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>9550</v>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G95" t="n">
-        <v>9502.333333333334</v>
+        <v>9502.5</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,7 +3139,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="C96" t="n">
         <v>9550</v>
@@ -2861,15 +3148,18 @@
         <v>9550</v>
       </c>
       <c r="E96" t="n">
-        <v>9540</v>
+        <v>9550</v>
       </c>
       <c r="F96" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>9504.416666666666</v>
+        <v>9502.333333333334</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,7 +3168,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9550</v>
+        <v>9540</v>
       </c>
       <c r="C97" t="n">
         <v>9550</v>
@@ -2887,15 +3177,18 @@
         <v>9550</v>
       </c>
       <c r="E97" t="n">
-        <v>9550</v>
+        <v>9540</v>
       </c>
       <c r="F97" t="n">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G97" t="n">
-        <v>9505.916666666666</v>
+        <v>9504.416666666666</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2916,12 +3209,15 @@
         <v>9550</v>
       </c>
       <c r="F98" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G98" t="n">
-        <v>9506.166666666666</v>
+        <v>9505.916666666666</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>9550</v>
       </c>
       <c r="F99" t="n">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="G99" t="n">
-        <v>9506.666666666666</v>
+        <v>9506.166666666666</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>9550</v>
       </c>
       <c r="F100" t="n">
-        <v>67.92400000000001</v>
+        <v>131</v>
       </c>
       <c r="G100" t="n">
-        <v>9506.916666666666</v>
+        <v>9506.666666666666</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2985,21 +3287,24 @@
         <v>9550</v>
       </c>
       <c r="C101" t="n">
-        <v>9585</v>
+        <v>9550</v>
       </c>
       <c r="D101" t="n">
-        <v>9585</v>
+        <v>9550</v>
       </c>
       <c r="E101" t="n">
         <v>9550</v>
       </c>
       <c r="F101" t="n">
-        <v>34.5</v>
+        <v>67.92400000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>9509.75</v>
+        <v>9506.916666666666</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9580</v>
+        <v>9550</v>
       </c>
       <c r="C102" t="n">
-        <v>9580</v>
+        <v>9585</v>
       </c>
       <c r="D102" t="n">
-        <v>9580</v>
+        <v>9585</v>
       </c>
       <c r="E102" t="n">
-        <v>9580</v>
+        <v>9550</v>
       </c>
       <c r="F102" t="n">
-        <v>3.6073</v>
+        <v>34.5</v>
       </c>
       <c r="G102" t="n">
-        <v>9510.583333333334</v>
+        <v>9509.75</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9590</v>
+        <v>9580</v>
       </c>
       <c r="C103" t="n">
-        <v>9590</v>
+        <v>9580</v>
       </c>
       <c r="D103" t="n">
-        <v>9590</v>
+        <v>9580</v>
       </c>
       <c r="E103" t="n">
-        <v>9590</v>
+        <v>9580</v>
       </c>
       <c r="F103" t="n">
-        <v>32</v>
+        <v>3.6073</v>
       </c>
       <c r="G103" t="n">
-        <v>9511.25</v>
+        <v>9510.583333333334</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>9590</v>
       </c>
       <c r="F104" t="n">
-        <v>38.5</v>
+        <v>32</v>
       </c>
       <c r="G104" t="n">
-        <v>9512.916666666666</v>
+        <v>9511.25</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,545 +3400,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9560</v>
+        <v>9590</v>
       </c>
       <c r="C105" t="n">
-        <v>9560</v>
+        <v>9590</v>
       </c>
       <c r="D105" t="n">
-        <v>9560</v>
+        <v>9590</v>
       </c>
       <c r="E105" t="n">
-        <v>9560</v>
+        <v>9590</v>
       </c>
       <c r="F105" t="n">
-        <v>5</v>
+        <v>38.5</v>
       </c>
       <c r="G105" t="n">
-        <v>9513.25</v>
+        <v>9512.916666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>9560</v>
-      </c>
-      <c r="C106" t="n">
-        <v>9560</v>
-      </c>
-      <c r="D106" t="n">
-        <v>9560</v>
-      </c>
-      <c r="E106" t="n">
-        <v>9560</v>
-      </c>
-      <c r="F106" t="n">
-        <v>11.7954</v>
-      </c>
-      <c r="G106" t="n">
-        <v>9514.25</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>9585</v>
-      </c>
-      <c r="C107" t="n">
-        <v>9590</v>
-      </c>
-      <c r="D107" t="n">
-        <v>9590</v>
-      </c>
-      <c r="E107" t="n">
-        <v>9585</v>
-      </c>
-      <c r="F107" t="n">
-        <v>95</v>
-      </c>
-      <c r="G107" t="n">
-        <v>9515.083333333334</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>9590</v>
-      </c>
-      <c r="C108" t="n">
-        <v>9590</v>
-      </c>
-      <c r="D108" t="n">
-        <v>9590</v>
-      </c>
-      <c r="E108" t="n">
-        <v>9590</v>
-      </c>
-      <c r="F108" t="n">
-        <v>32</v>
-      </c>
-      <c r="G108" t="n">
-        <v>9516.083333333334</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>9590</v>
-      </c>
-      <c r="C109" t="n">
-        <v>9600</v>
-      </c>
-      <c r="D109" t="n">
-        <v>9600</v>
-      </c>
-      <c r="E109" t="n">
-        <v>9590</v>
-      </c>
-      <c r="F109" t="n">
-        <v>34</v>
-      </c>
-      <c r="G109" t="n">
-        <v>9517.166666666666</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>9555</v>
-      </c>
-      <c r="C110" t="n">
-        <v>9555</v>
-      </c>
-      <c r="D110" t="n">
-        <v>9555</v>
-      </c>
-      <c r="E110" t="n">
-        <v>9555</v>
-      </c>
-      <c r="F110" t="n">
-        <v>34.6288</v>
-      </c>
-      <c r="G110" t="n">
-        <v>9518.583333333334</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>9595</v>
-      </c>
-      <c r="C111" t="n">
-        <v>9595</v>
-      </c>
-      <c r="D111" t="n">
-        <v>9595</v>
-      </c>
-      <c r="E111" t="n">
-        <v>9595</v>
-      </c>
-      <c r="F111" t="n">
-        <v>6</v>
-      </c>
-      <c r="G111" t="n">
-        <v>9521.25</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>9595</v>
-      </c>
-      <c r="C112" t="n">
-        <v>9595</v>
-      </c>
-      <c r="D112" t="n">
-        <v>9595</v>
-      </c>
-      <c r="E112" t="n">
-        <v>9595</v>
-      </c>
-      <c r="F112" t="n">
-        <v>4</v>
-      </c>
-      <c r="G112" t="n">
-        <v>9522.166666666666</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>9595</v>
-      </c>
-      <c r="C113" t="n">
-        <v>9595</v>
-      </c>
-      <c r="D113" t="n">
-        <v>9595</v>
-      </c>
-      <c r="E113" t="n">
-        <v>9595</v>
-      </c>
-      <c r="F113" t="n">
-        <v>4</v>
-      </c>
-      <c r="G113" t="n">
-        <v>9524.833333333334</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>9595</v>
-      </c>
-      <c r="C114" t="n">
-        <v>9600</v>
-      </c>
-      <c r="D114" t="n">
-        <v>9600</v>
-      </c>
-      <c r="E114" t="n">
-        <v>9595</v>
-      </c>
-      <c r="F114" t="n">
-        <v>6</v>
-      </c>
-      <c r="G114" t="n">
-        <v>9527.75</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>9600</v>
-      </c>
-      <c r="C115" t="n">
-        <v>9600</v>
-      </c>
-      <c r="D115" t="n">
-        <v>9600</v>
-      </c>
-      <c r="E115" t="n">
-        <v>9600</v>
-      </c>
-      <c r="F115" t="n">
-        <v>190.3934</v>
-      </c>
-      <c r="G115" t="n">
-        <v>9530.75</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>9570</v>
-      </c>
-      <c r="C116" t="n">
-        <v>9555</v>
-      </c>
-      <c r="D116" t="n">
-        <v>9570</v>
-      </c>
-      <c r="E116" t="n">
-        <v>9555</v>
-      </c>
-      <c r="F116" t="n">
-        <v>190.3934</v>
-      </c>
-      <c r="G116" t="n">
-        <v>9533</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>9635</v>
-      </c>
-      <c r="C117" t="n">
-        <v>9635</v>
-      </c>
-      <c r="D117" t="n">
-        <v>9635</v>
-      </c>
-      <c r="E117" t="n">
-        <v>9635</v>
-      </c>
-      <c r="F117" t="n">
-        <v>20</v>
-      </c>
-      <c r="G117" t="n">
-        <v>9535.583333333334</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>9635</v>
-      </c>
-      <c r="C118" t="n">
-        <v>9640</v>
-      </c>
-      <c r="D118" t="n">
-        <v>9640</v>
-      </c>
-      <c r="E118" t="n">
-        <v>9635</v>
-      </c>
-      <c r="F118" t="n">
-        <v>4</v>
-      </c>
-      <c r="G118" t="n">
-        <v>9539.333333333334</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>9640</v>
-      </c>
-      <c r="C119" t="n">
-        <v>9640</v>
-      </c>
-      <c r="D119" t="n">
-        <v>9640</v>
-      </c>
-      <c r="E119" t="n">
-        <v>9640</v>
-      </c>
-      <c r="F119" t="n">
-        <v>22</v>
-      </c>
-      <c r="G119" t="n">
-        <v>9542.833333333334</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>9640</v>
-      </c>
-      <c r="C120" t="n">
-        <v>9640</v>
-      </c>
-      <c r="D120" t="n">
-        <v>9640</v>
-      </c>
-      <c r="E120" t="n">
-        <v>9640</v>
-      </c>
-      <c r="F120" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="G120" t="n">
-        <v>9546.416666666666</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>9640</v>
-      </c>
-      <c r="C121" t="n">
-        <v>9650</v>
-      </c>
-      <c r="D121" t="n">
-        <v>9650</v>
-      </c>
-      <c r="E121" t="n">
-        <v>9640</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.99899896</v>
-      </c>
-      <c r="G121" t="n">
-        <v>9550.333333333334</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>9650</v>
-      </c>
-      <c r="C122" t="n">
-        <v>9670</v>
-      </c>
-      <c r="D122" t="n">
-        <v>9670</v>
-      </c>
-      <c r="E122" t="n">
-        <v>9650</v>
-      </c>
-      <c r="F122" t="n">
-        <v>103.50315532</v>
-      </c>
-      <c r="G122" t="n">
-        <v>9553.75</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>9625</v>
-      </c>
-      <c r="C123" t="n">
-        <v>9625</v>
-      </c>
-      <c r="D123" t="n">
-        <v>9625</v>
-      </c>
-      <c r="E123" t="n">
-        <v>9625</v>
-      </c>
-      <c r="F123" t="n">
-        <v>4.5253</v>
-      </c>
-      <c r="G123" t="n">
-        <v>9557.5</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>9660</v>
-      </c>
-      <c r="C124" t="n">
-        <v>9675</v>
-      </c>
-      <c r="D124" t="n">
-        <v>9675</v>
-      </c>
-      <c r="E124" t="n">
-        <v>9660</v>
-      </c>
-      <c r="F124" t="n">
-        <v>4.99926403</v>
-      </c>
-      <c r="G124" t="n">
-        <v>9560.75</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>9665</v>
-      </c>
-      <c r="C125" t="n">
-        <v>9665</v>
-      </c>
-      <c r="D125" t="n">
-        <v>9665</v>
-      </c>
-      <c r="E125" t="n">
-        <v>9665</v>
-      </c>
-      <c r="F125" t="n">
-        <v>62.2009</v>
-      </c>
-      <c r="G125" t="n">
-        <v>9563.5</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
+      <c r="I105" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
